--- a/ebs_with_tracing/forms/contact/person-create.xlsx
+++ b/ebs_with_tracing/forms/contact/person-create.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="953">
   <si>
     <t>type</t>
   </si>
@@ -2764,9 +2764,6 @@
   </si>
   <si>
     <t>caregiver_availability</t>
-  </si>
-  <si>
-    <t>select_one yes_no_un</t>
   </si>
   <si>
     <t>caregiver_available</t>
@@ -3312,10 +3309,10 @@
   <dimension ref="A1:AE94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C100" sqref="C100"/>
+      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5326,7 +5323,7 @@
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -5451,7 +5448,7 @@
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -5491,7 +5488,7 @@
       <c r="E54" s="27"/>
       <c r="F54" s="27"/>
       <c r="G54" s="27" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -5531,7 +5528,7 @@
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
       <c r="G55" s="27" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
@@ -5723,7 +5720,7 @@
       <c r="E60" s="27"/>
       <c r="F60" s="27"/>
       <c r="G60" s="27" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
@@ -5751,13 +5748,13 @@
     </row>
     <row r="61" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
+        <v>927</v>
+      </c>
+      <c r="B61" s="33" t="s">
         <v>907</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="C61" s="28" t="s">
         <v>908</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>909</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
@@ -5789,7 +5786,7 @@
     </row>
     <row r="62" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B62" s="32" t="s">
         <v>906</v>
@@ -5828,16 +5825,16 @@
         <v>905</v>
       </c>
       <c r="B63" s="32" t="s">
+        <v>910</v>
+      </c>
+      <c r="C63" s="32" t="s">
         <v>911</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>912</v>
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
@@ -5868,10 +5865,10 @@
         <v>50</v>
       </c>
       <c r="B64" s="33" t="s">
+        <v>912</v>
+      </c>
+      <c r="C64" s="28" t="s">
         <v>913</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>914</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
@@ -5906,10 +5903,10 @@
         <v>50</v>
       </c>
       <c r="B65" s="33" t="s">
+        <v>914</v>
+      </c>
+      <c r="C65" s="28" t="s">
         <v>915</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>916</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
@@ -5944,10 +5941,10 @@
         <v>50</v>
       </c>
       <c r="B66" s="33" t="s">
+        <v>916</v>
+      </c>
+      <c r="C66" s="28" t="s">
         <v>917</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>918</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
@@ -5982,10 +5979,10 @@
         <v>50</v>
       </c>
       <c r="B67" s="33" t="s">
+        <v>918</v>
+      </c>
+      <c r="C67" s="28" t="s">
         <v>919</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>920</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
@@ -6017,10 +6014,10 @@
     </row>
     <row r="68" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
+        <v>909</v>
+      </c>
+      <c r="B68" s="32" t="s">
         <v>910</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>911</v>
       </c>
       <c r="C68" s="34"/>
       <c r="D68" s="27"/>
@@ -6088,7 +6085,7 @@
         <v>905</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>34</v>
@@ -6123,19 +6120,19 @@
     </row>
     <row r="71" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B71" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="C71" s="14" t="s">
         <v>924</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>925</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
       <c r="G71" s="27" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
@@ -6163,10 +6160,10 @@
     </row>
     <row r="72" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="27"/>
@@ -6234,16 +6231,16 @@
         <v>31</v>
       </c>
       <c r="B74" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>926</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>927</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
       <c r="G74" s="27" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
@@ -6271,13 +6268,13 @@
     </row>
     <row r="75" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>928</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="C75" s="14" t="s">
         <v>929</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>930</v>
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
@@ -6309,13 +6306,13 @@
     </row>
     <row r="76" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B76" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>931</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>932</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
@@ -6347,13 +6344,13 @@
     </row>
     <row r="77" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B77" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="C77" s="14" t="s">
         <v>933</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>934</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
@@ -6385,13 +6382,13 @@
     </row>
     <row r="78" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B78" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>935</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>936</v>
       </c>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
@@ -6423,13 +6420,13 @@
     </row>
     <row r="79" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B79" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>937</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>938</v>
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
@@ -6461,13 +6458,13 @@
     </row>
     <row r="80" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B80" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>939</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>940</v>
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
@@ -6499,13 +6496,13 @@
     </row>
     <row r="81" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B81" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="C81" s="14" t="s">
         <v>941</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>942</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
@@ -6537,13 +6534,13 @@
     </row>
     <row r="82" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B82" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="C82" s="14" t="s">
         <v>943</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>944</v>
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
@@ -6575,13 +6572,13 @@
     </row>
     <row r="83" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B83" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>945</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>946</v>
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
@@ -6613,13 +6610,13 @@
     </row>
     <row r="84" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B84" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="C84" s="16" t="s">
         <v>947</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>948</v>
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
@@ -6651,13 +6648,13 @@
     </row>
     <row r="85" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B85" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="C85" s="14" t="s">
         <v>949</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>950</v>
       </c>
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
@@ -6689,13 +6686,13 @@
     </row>
     <row r="86" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B86" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="C86" s="16" t="s">
         <v>951</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>952</v>
       </c>
       <c r="D86" s="27"/>
       <c r="E86" s="27"/>
@@ -6730,7 +6727,7 @@
         <v>65</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="27"/>
@@ -44024,10 +44021,10 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-14 16-43</v>
+        <v>2020-11-14 16-46</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>14</v>

--- a/ebs_with_tracing/forms/contact/person-create.xlsx
+++ b/ebs_with_tracing/forms/contact/person-create.xlsx
@@ -2769,9 +2769,6 @@
     <t>caregiver_available</t>
   </si>
   <si>
-    <t>Does ${patient_name}  have a Home Based Caregiver?</t>
-  </si>
-  <si>
     <t>end_group</t>
   </si>
   <si>
@@ -2902,6 +2899,9 @@
   </si>
   <si>
     <t>${case_comorbidities} = 'true'</t>
+  </si>
+  <si>
+    <t>Does  patient have a Home Based Caregiver?</t>
   </si>
 </sst>
 </file>
@@ -3309,10 +3309,10 @@
   <dimension ref="A1:AE94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5323,7 +5323,7 @@
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -5448,7 +5448,7 @@
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -5488,7 +5488,7 @@
       <c r="E54" s="27"/>
       <c r="F54" s="27"/>
       <c r="G54" s="27" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -5528,7 +5528,7 @@
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
       <c r="G55" s="27" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
@@ -5720,7 +5720,7 @@
       <c r="E60" s="27"/>
       <c r="F60" s="27"/>
       <c r="G60" s="27" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
@@ -5748,13 +5748,13 @@
     </row>
     <row r="61" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B61" s="33" t="s">
         <v>907</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>908</v>
+        <v>952</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="62" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B62" s="32" t="s">
         <v>906</v>
@@ -5825,16 +5825,16 @@
         <v>905</v>
       </c>
       <c r="B63" s="32" t="s">
+        <v>909</v>
+      </c>
+      <c r="C63" s="32" t="s">
         <v>910</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>911</v>
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
@@ -5865,10 +5865,10 @@
         <v>50</v>
       </c>
       <c r="B64" s="33" t="s">
+        <v>911</v>
+      </c>
+      <c r="C64" s="28" t="s">
         <v>912</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>913</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
@@ -5903,10 +5903,10 @@
         <v>50</v>
       </c>
       <c r="B65" s="33" t="s">
+        <v>913</v>
+      </c>
+      <c r="C65" s="28" t="s">
         <v>914</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>915</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
@@ -5941,10 +5941,10 @@
         <v>50</v>
       </c>
       <c r="B66" s="33" t="s">
+        <v>915</v>
+      </c>
+      <c r="C66" s="28" t="s">
         <v>916</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>917</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
@@ -5979,10 +5979,10 @@
         <v>50</v>
       </c>
       <c r="B67" s="33" t="s">
+        <v>917</v>
+      </c>
+      <c r="C67" s="28" t="s">
         <v>918</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>919</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
@@ -6014,10 +6014,10 @@
     </row>
     <row r="68" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
+        <v>908</v>
+      </c>
+      <c r="B68" s="32" t="s">
         <v>909</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>910</v>
       </c>
       <c r="C68" s="34"/>
       <c r="D68" s="27"/>
@@ -6085,7 +6085,7 @@
         <v>905</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>34</v>
@@ -6120,19 +6120,19 @@
     </row>
     <row r="71" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B71" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="C71" s="14" t="s">
         <v>923</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>924</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
       <c r="G71" s="27" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
@@ -6160,10 +6160,10 @@
     </row>
     <row r="72" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="27"/>
@@ -6231,16 +6231,16 @@
         <v>31</v>
       </c>
       <c r="B74" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>925</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>926</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
       <c r="G74" s="27" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
@@ -6268,13 +6268,13 @@
     </row>
     <row r="75" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>927</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="C75" s="14" t="s">
         <v>928</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>929</v>
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
@@ -6306,13 +6306,13 @@
     </row>
     <row r="76" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B76" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>930</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>931</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
@@ -6344,13 +6344,13 @@
     </row>
     <row r="77" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B77" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="C77" s="14" t="s">
         <v>932</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>933</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
@@ -6382,13 +6382,13 @@
     </row>
     <row r="78" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B78" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>934</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>935</v>
       </c>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
@@ -6420,13 +6420,13 @@
     </row>
     <row r="79" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B79" s="13" t="s">
+        <v>935</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>936</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>937</v>
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
@@ -6458,13 +6458,13 @@
     </row>
     <row r="80" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B80" s="13" t="s">
+        <v>937</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>938</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>939</v>
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
@@ -6496,13 +6496,13 @@
     </row>
     <row r="81" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B81" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="C81" s="14" t="s">
         <v>940</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>941</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
@@ -6534,13 +6534,13 @@
     </row>
     <row r="82" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B82" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="C82" s="14" t="s">
         <v>942</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>943</v>
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
@@ -6572,13 +6572,13 @@
     </row>
     <row r="83" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B83" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>944</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>945</v>
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
@@ -6610,13 +6610,13 @@
     </row>
     <row r="84" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B84" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="C84" s="16" t="s">
         <v>946</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>947</v>
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
@@ -6648,13 +6648,13 @@
     </row>
     <row r="85" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B85" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="C85" s="14" t="s">
         <v>948</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>949</v>
       </c>
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
@@ -6686,13 +6686,13 @@
     </row>
     <row r="86" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B86" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="C86" s="16" t="s">
         <v>950</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>951</v>
       </c>
       <c r="D86" s="27"/>
       <c r="E86" s="27"/>
@@ -6727,7 +6727,7 @@
         <v>65</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="27"/>
@@ -44021,10 +44021,10 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-14 16-46</v>
+        <v>2020-11-14 16-48</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>14</v>

--- a/ebs_with_tracing/forms/contact/person-create.xlsx
+++ b/ebs_with_tracing/forms/contact/person-create.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="952">
   <si>
     <t>type</t>
   </si>
@@ -2803,9 +2803,6 @@
   </si>
   <si>
     <t>selected(../role, 'covid_patient') or selected(../role, 'patient')</t>
-  </si>
-  <si>
-    <t>pages</t>
   </si>
   <si>
     <t>comorbidities</t>
@@ -3308,7 +3305,7 @@
   </sheetPr>
   <dimension ref="A1:AE94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5748,13 +5745,13 @@
     </row>
     <row r="61" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B61" s="33" t="s">
         <v>907</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
@@ -6085,7 +6082,7 @@
         <v>905</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>34</v>
@@ -6120,13 +6117,13 @@
     </row>
     <row r="71" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B71" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="C71" s="14" t="s">
         <v>922</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>923</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
@@ -6163,7 +6160,7 @@
         <v>908</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="27"/>
@@ -6231,16 +6228,16 @@
         <v>31</v>
       </c>
       <c r="B74" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>924</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>925</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
       <c r="G74" s="27" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
@@ -6268,13 +6265,13 @@
     </row>
     <row r="75" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>926</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="C75" s="14" t="s">
         <v>927</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>928</v>
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
@@ -6306,13 +6303,13 @@
     </row>
     <row r="76" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B76" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>929</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>930</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
@@ -6344,13 +6341,13 @@
     </row>
     <row r="77" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B77" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="C77" s="14" t="s">
         <v>931</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>932</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
@@ -6382,13 +6379,13 @@
     </row>
     <row r="78" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B78" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>933</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>934</v>
       </c>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
@@ -6420,13 +6417,13 @@
     </row>
     <row r="79" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B79" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>935</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>936</v>
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
@@ -6458,13 +6455,13 @@
     </row>
     <row r="80" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B80" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>937</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>938</v>
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
@@ -6496,13 +6493,13 @@
     </row>
     <row r="81" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B81" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="C81" s="14" t="s">
         <v>939</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>940</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
@@ -6534,13 +6531,13 @@
     </row>
     <row r="82" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B82" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="C82" s="14" t="s">
         <v>941</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>942</v>
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
@@ -6572,13 +6569,13 @@
     </row>
     <row r="83" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B83" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>943</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>944</v>
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
@@ -6610,13 +6607,13 @@
     </row>
     <row r="84" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B84" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="C84" s="16" t="s">
         <v>945</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>946</v>
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
@@ -6648,13 +6645,13 @@
     </row>
     <row r="85" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B85" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="C85" s="14" t="s">
         <v>947</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>948</v>
       </c>
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
@@ -6686,13 +6683,13 @@
     </row>
     <row r="86" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B86" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="C86" s="16" t="s">
         <v>949</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>950</v>
       </c>
       <c r="D86" s="27"/>
       <c r="E86" s="27"/>
@@ -6727,7 +6724,7 @@
         <v>65</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="27"/>
@@ -43960,8 +43957,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -44021,11 +44018,9 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-14 16-48</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>920</v>
-      </c>
+        <v>2020-11-14 16-53</v>
+      </c>
+      <c r="D2" s="36"/>
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>

--- a/ebs_with_tracing/forms/contact/person-create.xlsx
+++ b/ebs_with_tracing/forms/contact/person-create.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="953">
   <si>
     <t>type</t>
   </si>
@@ -2899,6 +2899,9 @@
   </si>
   <si>
     <t>Does  patient have a Home Based Caregiver?</t>
+  </si>
+  <si>
+    <t>${caregiver_available} 'true'</t>
   </si>
 </sst>
 </file>
@@ -3305,11 +3308,11 @@
   </sheetPr>
   <dimension ref="A1:AE94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5831,7 +5834,7 @@
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27" t="s">
-        <v>919</v>
+        <v>952</v>
       </c>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
@@ -6090,7 +6093,9 @@
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
       <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
+      <c r="G70" s="27" t="s">
+        <v>919</v>
+      </c>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
       <c r="J70" s="27"/>
@@ -6128,9 +6133,7 @@
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
-      <c r="G71" s="27" t="s">
-        <v>919</v>
-      </c>
+      <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
       <c r="J71" s="27"/>
@@ -43957,7 +43960,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -44018,7 +44021,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-14 16-53</v>
+        <v>2020-11-14 16-59</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="3" t="s">

--- a/ebs_with_tracing/forms/contact/person-create.xlsx
+++ b/ebs_with_tracing/forms/contact/person-create.xlsx
@@ -3309,10 +3309,10 @@
   <dimension ref="A1:AE94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7025,7 +7025,7 @@
   </sheetPr>
   <dimension ref="A1:XFD272"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -44021,7 +44021,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-14 16-59</v>
+        <v>2020-11-14 17-02</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="3" t="s">

--- a/ebs_with_tracing/forms/contact/person-create.xlsx
+++ b/ebs_with_tracing/forms/contact/person-create.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronald\Documents\GitHub\config-covid\ebs_with_tracing\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\ebs_with_tracing\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="951">
   <si>
     <t>type</t>
   </si>
@@ -2895,13 +2895,7 @@
     <t>Recurrent miscarriages</t>
   </si>
   <si>
-    <t>${case_comorbidities} = 'true'</t>
-  </si>
-  <si>
     <t>Does  patient have a Home Based Caregiver?</t>
-  </si>
-  <si>
-    <t>${caregiver_available} 'true'</t>
   </si>
 </sst>
 </file>
@@ -3309,32 +3303,32 @@
   <dimension ref="A1:AE94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.453125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.6328125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="21" customWidth="1"/>
     <col min="5" max="5" width="14" style="21" customWidth="1"/>
-    <col min="6" max="6" width="8.6328125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="21" customWidth="1"/>
-    <col min="8" max="9" width="10.6328125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="8.6328125" style="21" customWidth="1"/>
-    <col min="11" max="12" width="18.1796875" style="21" customWidth="1"/>
-    <col min="13" max="13" width="36.6328125" style="21" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" style="21" customWidth="1"/>
-    <col min="15" max="16" width="34.81640625" style="21" customWidth="1"/>
-    <col min="17" max="30" width="8.6328125" style="21" customWidth="1"/>
-    <col min="31" max="16384" width="14.453125" style="21"/>
+    <col min="6" max="6" width="8.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="21" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="21" customWidth="1"/>
+    <col min="11" max="12" width="18.140625" style="21" customWidth="1"/>
+    <col min="13" max="13" width="36.5703125" style="21" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="21" customWidth="1"/>
+    <col min="15" max="16" width="34.85546875" style="21" customWidth="1"/>
+    <col min="17" max="30" width="8.5703125" style="21" customWidth="1"/>
+    <col min="31" max="16384" width="14.42578125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3402,7 +3396,7 @@
       <c r="AC1" s="20"/>
       <c r="AD1" s="20"/>
     </row>
-    <row r="2" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
@@ -3442,7 +3436,7 @@
       <c r="AC2" s="23"/>
       <c r="AD2" s="23"/>
     </row>
-    <row r="3" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>31</v>
       </c>
@@ -3480,7 +3474,7 @@
       <c r="AC3" s="23"/>
       <c r="AD3" s="23"/>
     </row>
-    <row r="4" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>50</v>
       </c>
@@ -3518,7 +3512,7 @@
       <c r="AC4" s="23"/>
       <c r="AD4" s="23"/>
     </row>
-    <row r="5" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>50</v>
       </c>
@@ -3556,7 +3550,7 @@
       <c r="AC5" s="23"/>
       <c r="AD5" s="23"/>
     </row>
-    <row r="6" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>50</v>
       </c>
@@ -3594,7 +3588,7 @@
       <c r="AC6" s="23"/>
       <c r="AD6" s="23"/>
     </row>
-    <row r="7" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>65</v>
       </c>
@@ -3628,7 +3622,7 @@
       <c r="AC7" s="23"/>
       <c r="AD7" s="23"/>
     </row>
-    <row r="8" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>65</v>
       </c>
@@ -3662,7 +3656,7 @@
       <c r="AC8" s="23"/>
       <c r="AD8" s="23"/>
     </row>
-    <row r="9" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>31</v>
       </c>
@@ -3702,7 +3696,7 @@
       <c r="AC9" s="23"/>
       <c r="AD9" s="23"/>
     </row>
-    <row r="10" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>50</v>
       </c>
@@ -3748,7 +3742,7 @@
       <c r="AC10" s="23"/>
       <c r="AD10" s="23"/>
     </row>
-    <row r="11" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>50</v>
       </c>
@@ -3788,7 +3782,7 @@
       <c r="AC11" s="23"/>
       <c r="AD11" s="23"/>
     </row>
-    <row r="12" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>50</v>
       </c>
@@ -3828,7 +3822,7 @@
       <c r="AC12" s="23"/>
       <c r="AD12" s="23"/>
     </row>
-    <row r="13" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>88</v>
       </c>
@@ -3870,7 +3864,7 @@
       <c r="AC13" s="23"/>
       <c r="AD13" s="23"/>
     </row>
-    <row r="14" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>91</v>
       </c>
@@ -3908,7 +3902,7 @@
       <c r="AC14" s="23"/>
       <c r="AD14" s="23"/>
     </row>
-    <row r="15" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>65</v>
       </c>
@@ -3942,7 +3936,7 @@
       <c r="AC15" s="23"/>
       <c r="AD15" s="23"/>
     </row>
-    <row r="16" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -3974,7 +3968,7 @@
       <c r="AC16" s="20"/>
       <c r="AD16" s="20"/>
     </row>
-    <row r="17" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>31</v>
       </c>
@@ -4012,7 +4006,7 @@
       <c r="AC17" s="27"/>
       <c r="AD17" s="27"/>
     </row>
-    <row r="18" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>87</v>
       </c>
@@ -4052,7 +4046,7 @@
       <c r="AC18" s="27"/>
       <c r="AD18" s="27"/>
     </row>
-    <row r="19" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>87</v>
       </c>
@@ -4092,7 +4086,7 @@
       <c r="AC19" s="27"/>
       <c r="AD19" s="27"/>
     </row>
-    <row r="20" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>50</v>
       </c>
@@ -4130,7 +4124,7 @@
       <c r="AC20" s="27"/>
       <c r="AD20" s="27"/>
     </row>
-    <row r="21" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>50</v>
       </c>
@@ -4168,7 +4162,7 @@
       <c r="AC21" s="27"/>
       <c r="AD21" s="27"/>
     </row>
-    <row r="22" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>91</v>
       </c>
@@ -4210,7 +4204,7 @@
       <c r="AC22" s="27"/>
       <c r="AD22" s="27"/>
     </row>
-    <row r="23" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>50</v>
       </c>
@@ -4256,7 +4250,7 @@
       <c r="AC23" s="27"/>
       <c r="AD23" s="27"/>
     </row>
-    <row r="24" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>91</v>
       </c>
@@ -4296,7 +4290,7 @@
       <c r="AC24" s="27"/>
       <c r="AD24" s="27"/>
     </row>
-    <row r="25" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>91</v>
       </c>
@@ -4334,7 +4328,7 @@
       <c r="AC25" s="27"/>
       <c r="AD25" s="27"/>
     </row>
-    <row r="26" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>157</v>
       </c>
@@ -4374,7 +4368,7 @@
       <c r="AC26" s="27"/>
       <c r="AD26" s="27"/>
     </row>
-    <row r="27" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>31</v>
       </c>
@@ -4415,7 +4409,7 @@
       <c r="AD27" s="27"/>
       <c r="AE27" s="27"/>
     </row>
-    <row r="28" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>182</v>
       </c>
@@ -4460,7 +4454,7 @@
       <c r="AD28" s="27"/>
       <c r="AE28" s="27"/>
     </row>
-    <row r="29" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>50</v>
       </c>
@@ -4505,7 +4499,7 @@
       <c r="AD29" s="27"/>
       <c r="AE29" s="27"/>
     </row>
-    <row r="30" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>50</v>
       </c>
@@ -4548,7 +4542,7 @@
       <c r="AD30" s="27"/>
       <c r="AE30" s="27"/>
     </row>
-    <row r="31" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>50</v>
       </c>
@@ -4589,7 +4583,7 @@
       <c r="AD31" s="27"/>
       <c r="AE31" s="27"/>
     </row>
-    <row r="32" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>50</v>
       </c>
@@ -4630,7 +4624,7 @@
       <c r="AD32" s="27"/>
       <c r="AE32" s="27"/>
     </row>
-    <row r="33" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>50</v>
       </c>
@@ -4673,7 +4667,7 @@
       <c r="AD33" s="27"/>
       <c r="AE33" s="27"/>
     </row>
-    <row r="34" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>50</v>
       </c>
@@ -4712,7 +4706,7 @@
       <c r="AD34" s="27"/>
       <c r="AE34" s="27"/>
     </row>
-    <row r="35" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>65</v>
       </c>
@@ -4747,7 +4741,7 @@
       <c r="AD35" s="27"/>
       <c r="AE35" s="27"/>
     </row>
-    <row r="36" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>31</v>
       </c>
@@ -4785,7 +4779,7 @@
       <c r="AC36" s="27"/>
       <c r="AD36" s="27"/>
     </row>
-    <row r="37" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>112</v>
       </c>
@@ -4833,7 +4827,7 @@
       <c r="AC37" s="27"/>
       <c r="AD37" s="27"/>
     </row>
-    <row r="38" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>119</v>
       </c>
@@ -4873,7 +4867,7 @@
       <c r="AC38" s="27"/>
       <c r="AD38" s="27"/>
     </row>
-    <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>123</v>
       </c>
@@ -4919,7 +4913,7 @@
       <c r="AC39" s="27"/>
       <c r="AD39" s="27"/>
     </row>
-    <row r="40" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>123</v>
       </c>
@@ -4963,7 +4957,7 @@
       <c r="AC40" s="27"/>
       <c r="AD40" s="27"/>
     </row>
-    <row r="41" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>132</v>
       </c>
@@ -5003,7 +4997,7 @@
       <c r="AC41" s="27"/>
       <c r="AD41" s="27"/>
     </row>
-    <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>91</v>
       </c>
@@ -5041,7 +5035,7 @@
       <c r="AC42" s="27"/>
       <c r="AD42" s="27"/>
     </row>
-    <row r="43" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>91</v>
       </c>
@@ -5079,7 +5073,7 @@
       <c r="AC43" s="27"/>
       <c r="AD43" s="27"/>
     </row>
-    <row r="44" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>91</v>
       </c>
@@ -5117,7 +5111,7 @@
       <c r="AC44" s="27"/>
       <c r="AD44" s="27"/>
     </row>
-    <row r="45" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>91</v>
       </c>
@@ -5155,7 +5149,7 @@
       <c r="AC45" s="27"/>
       <c r="AD45" s="27"/>
     </row>
-    <row r="46" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>91</v>
       </c>
@@ -5193,7 +5187,7 @@
       <c r="AC46" s="27"/>
       <c r="AD46" s="27"/>
     </row>
-    <row r="47" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>119</v>
       </c>
@@ -5233,7 +5227,7 @@
       <c r="AC47" s="27"/>
       <c r="AD47" s="27"/>
     </row>
-    <row r="48" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>65</v>
       </c>
@@ -5267,7 +5261,7 @@
       <c r="AC48" s="27"/>
       <c r="AD48" s="27"/>
     </row>
-    <row r="49" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>148</v>
       </c>
@@ -5309,7 +5303,7 @@
       <c r="AC49" s="27"/>
       <c r="AD49" s="27"/>
     </row>
-    <row r="50" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>50</v>
       </c>
@@ -5350,7 +5344,7 @@
       <c r="AD50" s="27"/>
       <c r="AE50" s="27"/>
     </row>
-    <row r="51" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>151</v>
       </c>
@@ -5392,7 +5386,7 @@
       <c r="AC51" s="27"/>
       <c r="AD51" s="27"/>
     </row>
-    <row r="52" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>151</v>
       </c>
@@ -5434,7 +5428,7 @@
       <c r="AC52" s="27"/>
       <c r="AD52" s="27"/>
     </row>
-    <row r="53" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>50</v>
       </c>
@@ -5474,7 +5468,7 @@
       <c r="AC53" s="27"/>
       <c r="AD53" s="27"/>
     </row>
-    <row r="54" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>50</v>
       </c>
@@ -5514,7 +5508,7 @@
       <c r="AC54" s="27"/>
       <c r="AD54" s="27"/>
     </row>
-    <row r="55" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>50</v>
       </c>
@@ -5554,7 +5548,7 @@
       <c r="AC55" s="27"/>
       <c r="AD55" s="27"/>
     </row>
-    <row r="56" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>50</v>
       </c>
@@ -5596,7 +5590,7 @@
       <c r="AC56" s="27"/>
       <c r="AD56" s="27"/>
     </row>
-    <row r="57" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
         <v>50</v>
       </c>
@@ -5634,7 +5628,7 @@
       <c r="AC57" s="27"/>
       <c r="AD57" s="27"/>
     </row>
-    <row r="58" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
         <v>50</v>
       </c>
@@ -5674,7 +5668,7 @@
       <c r="AC58" s="27"/>
       <c r="AD58" s="27"/>
     </row>
-    <row r="59" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="35"/>
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
@@ -5706,7 +5700,7 @@
       <c r="AC59" s="27"/>
       <c r="AD59" s="27"/>
     </row>
-    <row r="60" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
         <v>905</v>
       </c>
@@ -5746,7 +5740,7 @@
       <c r="AC60" s="27"/>
       <c r="AD60" s="27"/>
     </row>
-    <row r="61" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
         <v>925</v>
       </c>
@@ -5754,7 +5748,7 @@
         <v>907</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
@@ -5784,7 +5778,7 @@
       <c r="AC61" s="27"/>
       <c r="AD61" s="27"/>
     </row>
-    <row r="62" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
         <v>908</v>
       </c>
@@ -5820,7 +5814,7 @@
       <c r="AC62" s="27"/>
       <c r="AD62" s="27"/>
     </row>
-    <row r="63" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="32" t="s">
         <v>905</v>
       </c>
@@ -5833,9 +5827,7 @@
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="27" t="s">
-        <v>952</v>
-      </c>
+      <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
       <c r="J63" s="27"/>
@@ -5860,7 +5852,7 @@
       <c r="AC63" s="27"/>
       <c r="AD63" s="27"/>
     </row>
-    <row r="64" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
         <v>50</v>
       </c>
@@ -5898,7 +5890,7 @@
       <c r="AC64" s="27"/>
       <c r="AD64" s="27"/>
     </row>
-    <row r="65" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
         <v>50</v>
       </c>
@@ -5936,7 +5928,7 @@
       <c r="AC65" s="27"/>
       <c r="AD65" s="27"/>
     </row>
-    <row r="66" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
         <v>50</v>
       </c>
@@ -5974,7 +5966,7 @@
       <c r="AC66" s="27"/>
       <c r="AD66" s="27"/>
     </row>
-    <row r="67" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
         <v>50</v>
       </c>
@@ -6012,7 +6004,7 @@
       <c r="AC67" s="27"/>
       <c r="AD67" s="27"/>
     </row>
-    <row r="68" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
         <v>908</v>
       </c>
@@ -6048,7 +6040,7 @@
       <c r="AC68" s="27"/>
       <c r="AD68" s="27"/>
     </row>
-    <row r="69" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="35"/>
       <c r="B69" s="35"/>
       <c r="C69" s="35"/>
@@ -6080,7 +6072,7 @@
       <c r="AC69" s="27"/>
       <c r="AD69" s="27"/>
     </row>
-    <row r="70" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>905</v>
       </c>
@@ -6120,7 +6112,7 @@
       <c r="AC70" s="27"/>
       <c r="AD70" s="27"/>
     </row>
-    <row r="71" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
         <v>925</v>
       </c>
@@ -6158,7 +6150,7 @@
       <c r="AC71" s="27"/>
       <c r="AD71" s="27"/>
     </row>
-    <row r="72" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>908</v>
       </c>
@@ -6194,7 +6186,7 @@
       <c r="AC72" s="27"/>
       <c r="AD72" s="27"/>
     </row>
-    <row r="73" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="37"/>
       <c r="B73" s="37"/>
       <c r="C73" s="37"/>
@@ -6226,7 +6218,7 @@
       <c r="AC73" s="27"/>
       <c r="AD73" s="27"/>
     </row>
-    <row r="74" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>31</v>
       </c>
@@ -6239,9 +6231,7 @@
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
-      <c r="G74" s="27" t="s">
-        <v>950</v>
-      </c>
+      <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
       <c r="J74" s="27"/>
@@ -6266,7 +6256,7 @@
       <c r="AC74" s="27"/>
       <c r="AD74" s="27"/>
     </row>
-    <row r="75" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>925</v>
       </c>
@@ -6304,7 +6294,7 @@
       <c r="AC75" s="27"/>
       <c r="AD75" s="27"/>
     </row>
-    <row r="76" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>925</v>
       </c>
@@ -6342,7 +6332,7 @@
       <c r="AC76" s="27"/>
       <c r="AD76" s="27"/>
     </row>
-    <row r="77" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>925</v>
       </c>
@@ -6380,7 +6370,7 @@
       <c r="AC77" s="27"/>
       <c r="AD77" s="27"/>
     </row>
-    <row r="78" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>925</v>
       </c>
@@ -6418,7 +6408,7 @@
       <c r="AC78" s="27"/>
       <c r="AD78" s="27"/>
     </row>
-    <row r="79" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>925</v>
       </c>
@@ -6456,7 +6446,7 @@
       <c r="AC79" s="27"/>
       <c r="AD79" s="27"/>
     </row>
-    <row r="80" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>925</v>
       </c>
@@ -6494,7 +6484,7 @@
       <c r="AC80" s="27"/>
       <c r="AD80" s="27"/>
     </row>
-    <row r="81" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>925</v>
       </c>
@@ -6532,7 +6522,7 @@
       <c r="AC81" s="27"/>
       <c r="AD81" s="27"/>
     </row>
-    <row r="82" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>925</v>
       </c>
@@ -6570,7 +6560,7 @@
       <c r="AC82" s="27"/>
       <c r="AD82" s="27"/>
     </row>
-    <row r="83" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>925</v>
       </c>
@@ -6608,7 +6598,7 @@
       <c r="AC83" s="27"/>
       <c r="AD83" s="27"/>
     </row>
-    <row r="84" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>925</v>
       </c>
@@ -6646,7 +6636,7 @@
       <c r="AC84" s="27"/>
       <c r="AD84" s="27"/>
     </row>
-    <row r="85" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>925</v>
       </c>
@@ -6684,7 +6674,7 @@
       <c r="AC85" s="27"/>
       <c r="AD85" s="27"/>
     </row>
-    <row r="86" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>925</v>
       </c>
@@ -6722,7 +6712,7 @@
       <c r="AC86" s="27"/>
       <c r="AD86" s="27"/>
     </row>
-    <row r="87" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>65</v>
       </c>
@@ -6758,7 +6748,7 @@
       <c r="AC87" s="27"/>
       <c r="AD87" s="27"/>
     </row>
-    <row r="88" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="35"/>
       <c r="B88" s="35"/>
       <c r="C88" s="35"/>
@@ -6790,7 +6780,7 @@
       <c r="AC88" s="27"/>
       <c r="AD88" s="27"/>
     </row>
-    <row r="89" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="26" t="s">
         <v>31</v>
       </c>
@@ -6830,7 +6820,7 @@
       <c r="AC89" s="27"/>
       <c r="AD89" s="27"/>
     </row>
-    <row r="90" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="26" t="s">
         <v>91</v>
       </c>
@@ -6868,7 +6858,7 @@
       <c r="AC90" s="27"/>
       <c r="AD90" s="27"/>
     </row>
-    <row r="91" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
         <v>91</v>
       </c>
@@ -6906,7 +6896,7 @@
       <c r="AC91" s="27"/>
       <c r="AD91" s="27"/>
     </row>
-    <row r="92" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="26" t="s">
         <v>91</v>
       </c>
@@ -6944,7 +6934,7 @@
       <c r="AC92" s="27"/>
       <c r="AD92" s="27"/>
     </row>
-    <row r="93" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="26" t="s">
         <v>65</v>
       </c>
@@ -6978,7 +6968,7 @@
       <c r="AC93" s="27"/>
       <c r="AD93" s="27"/>
     </row>
-    <row r="94" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="26" t="s">
         <v>65</v>
       </c>
@@ -7029,17 +7019,17 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" customWidth="1"/>
-    <col min="5" max="8" width="7.6328125" customWidth="1"/>
-    <col min="9" max="21" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="21" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7070,7 +7060,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -7101,7 +7091,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -7132,7 +7122,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
@@ -7163,7 +7153,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -7194,7 +7184,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
@@ -7225,7 +7215,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
@@ -7256,7 +7246,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -7287,7 +7277,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>55</v>
       </c>
@@ -7318,7 +7308,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -7349,7 +7339,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
@@ -7380,7 +7370,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
@@ -7411,7 +7401,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -7442,7 +7432,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -7473,7 +7463,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
@@ -7504,7 +7494,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>55</v>
       </c>
@@ -7535,7 +7525,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
@@ -7566,7 +7556,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
@@ -23960,7 +23950,7 @@
       <c r="XFC18" s="9"/>
       <c r="XFD18" s="7"/>
     </row>
-    <row r="19" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
@@ -40354,7 +40344,7 @@
       <c r="XFC19" s="9"/>
       <c r="XFD19" s="7"/>
     </row>
-    <row r="20" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
@@ -40385,7 +40375,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>71</v>
       </c>
@@ -40416,7 +40406,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>71</v>
       </c>
@@ -40447,7 +40437,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>204</v>
       </c>
@@ -40461,7 +40451,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>204</v>
       </c>
@@ -40475,7 +40465,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="25" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>204</v>
       </c>
@@ -40489,7 +40479,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="26" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>204</v>
       </c>
@@ -40503,7 +40493,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="27" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>204</v>
       </c>
@@ -40517,7 +40507,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="28" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>204</v>
       </c>
@@ -40531,7 +40521,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="29" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -40545,7 +40535,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -40559,7 +40549,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>204</v>
       </c>
@@ -40573,7 +40563,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="32" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -40587,7 +40577,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>204</v>
       </c>
@@ -40601,7 +40591,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -40615,7 +40605,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>204</v>
       </c>
@@ -40629,7 +40619,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>204</v>
       </c>
@@ -40643,7 +40633,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>204</v>
       </c>
@@ -40657,7 +40647,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>204</v>
       </c>
@@ -40671,7 +40661,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>204</v>
       </c>
@@ -40685,7 +40675,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>204</v>
       </c>
@@ -40699,7 +40689,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>204</v>
       </c>
@@ -40713,7 +40703,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -40727,7 +40717,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -40741,7 +40731,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>204</v>
       </c>
@@ -40755,7 +40745,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>204</v>
       </c>
@@ -40769,7 +40759,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -40783,7 +40773,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -40797,7 +40787,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>204</v>
       </c>
@@ -40811,7 +40801,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -40825,7 +40815,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>204</v>
       </c>
@@ -40839,7 +40829,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -40853,7 +40843,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>204</v>
       </c>
@@ -40867,7 +40857,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>204</v>
       </c>
@@ -40881,7 +40871,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -40895,7 +40885,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>204</v>
       </c>
@@ -40909,7 +40899,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -40923,7 +40913,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>204</v>
       </c>
@@ -40937,7 +40927,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>204</v>
       </c>
@@ -40951,7 +40941,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>204</v>
       </c>
@@ -40965,7 +40955,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>204</v>
       </c>
@@ -40979,7 +40969,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>204</v>
       </c>
@@ -40993,7 +40983,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -41007,7 +40997,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>204</v>
       </c>
@@ -41021,7 +41011,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>204</v>
       </c>
@@ -41035,7 +41025,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>204</v>
       </c>
@@ -41049,7 +41039,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>204</v>
       </c>
@@ -41063,7 +41053,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>204</v>
       </c>
@@ -41077,7 +41067,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>204</v>
       </c>
@@ -41091,7 +41081,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>204</v>
       </c>
@@ -41105,7 +41095,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>204</v>
       </c>
@@ -41119,7 +41109,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -41133,7 +41123,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>204</v>
       </c>
@@ -41147,7 +41137,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>204</v>
       </c>
@@ -41161,7 +41151,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>204</v>
       </c>
@@ -41175,7 +41165,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>204</v>
       </c>
@@ -41189,7 +41179,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>204</v>
       </c>
@@ -41203,7 +41193,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>204</v>
       </c>
@@ -41217,7 +41207,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>204</v>
       </c>
@@ -41231,7 +41221,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>204</v>
       </c>
@@ -41245,7 +41235,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -41259,7 +41249,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>204</v>
       </c>
@@ -41273,7 +41263,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>204</v>
       </c>
@@ -41287,7 +41277,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>204</v>
       </c>
@@ -41301,7 +41291,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>204</v>
       </c>
@@ -41315,7 +41305,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>204</v>
       </c>
@@ -41329,7 +41319,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>204</v>
       </c>
@@ -41343,7 +41333,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>204</v>
       </c>
@@ -41357,7 +41347,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>204</v>
       </c>
@@ -41371,7 +41361,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>204</v>
       </c>
@@ -41385,7 +41375,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -41399,7 +41389,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>204</v>
       </c>
@@ -41413,7 +41403,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>204</v>
       </c>
@@ -41427,7 +41417,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>204</v>
       </c>
@@ -41441,7 +41431,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -41455,7 +41445,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>204</v>
       </c>
@@ -41469,7 +41459,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -41483,7 +41473,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>204</v>
       </c>
@@ -41497,7 +41487,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>204</v>
       </c>
@@ -41511,7 +41501,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>204</v>
       </c>
@@ -41525,7 +41515,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>204</v>
       </c>
@@ -41539,7 +41529,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>204</v>
       </c>
@@ -41553,7 +41543,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>204</v>
       </c>
@@ -41567,7 +41557,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -41581,7 +41571,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -41595,7 +41585,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>204</v>
       </c>
@@ -41609,7 +41599,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>204</v>
       </c>
@@ -41623,7 +41613,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -41637,7 +41627,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>204</v>
       </c>
@@ -41651,7 +41641,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>204</v>
       </c>
@@ -41665,7 +41655,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -41679,7 +41669,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>204</v>
       </c>
@@ -41693,7 +41683,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>204</v>
       </c>
@@ -41707,7 +41697,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -41721,7 +41711,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>204</v>
       </c>
@@ -41735,7 +41725,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>204</v>
       </c>
@@ -41749,7 +41739,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>204</v>
       </c>
@@ -41763,7 +41753,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>204</v>
       </c>
@@ -41777,7 +41767,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>204</v>
       </c>
@@ -41791,7 +41781,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>204</v>
       </c>
@@ -41805,7 +41795,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>204</v>
       </c>
@@ -41819,7 +41809,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>204</v>
       </c>
@@ -41833,7 +41823,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>204</v>
       </c>
@@ -41847,7 +41837,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>204</v>
       </c>
@@ -41861,7 +41851,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>204</v>
       </c>
@@ -41875,7 +41865,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>204</v>
       </c>
@@ -41889,7 +41879,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>204</v>
       </c>
@@ -41903,7 +41893,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>204</v>
       </c>
@@ -41917,7 +41907,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>204</v>
       </c>
@@ -41931,7 +41921,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>204</v>
       </c>
@@ -41945,7 +41935,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>204</v>
       </c>
@@ -41959,7 +41949,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>204</v>
       </c>
@@ -41973,7 +41963,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>204</v>
       </c>
@@ -41987,7 +41977,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>204</v>
       </c>
@@ -42001,7 +41991,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>204</v>
       </c>
@@ -42015,7 +42005,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>204</v>
       </c>
@@ -42029,7 +42019,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>204</v>
       </c>
@@ -42043,7 +42033,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>204</v>
       </c>
@@ -42057,7 +42047,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>204</v>
       </c>
@@ -42071,7 +42061,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>204</v>
       </c>
@@ -42085,7 +42075,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>204</v>
       </c>
@@ -42099,7 +42089,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>204</v>
       </c>
@@ -42113,7 +42103,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>204</v>
       </c>
@@ -42127,7 +42117,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>204</v>
       </c>
@@ -42141,7 +42131,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>204</v>
       </c>
@@ -42155,7 +42145,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>204</v>
       </c>
@@ -42169,7 +42159,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>204</v>
       </c>
@@ -42183,7 +42173,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>204</v>
       </c>
@@ -42197,7 +42187,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>204</v>
       </c>
@@ -42211,7 +42201,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>204</v>
       </c>
@@ -42225,7 +42215,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>204</v>
       </c>
@@ -42239,7 +42229,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>204</v>
       </c>
@@ -42253,7 +42243,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>204</v>
       </c>
@@ -42267,7 +42257,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>204</v>
       </c>
@@ -42281,7 +42271,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>204</v>
       </c>
@@ -42295,7 +42285,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>204</v>
       </c>
@@ -42309,7 +42299,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>204</v>
       </c>
@@ -42323,7 +42313,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>204</v>
       </c>
@@ -42337,7 +42327,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>204</v>
       </c>
@@ -42351,7 +42341,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>204</v>
       </c>
@@ -42365,7 +42355,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>204</v>
       </c>
@@ -42379,7 +42369,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>204</v>
       </c>
@@ -42393,7 +42383,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>204</v>
       </c>
@@ -42407,7 +42397,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>204</v>
       </c>
@@ -42421,7 +42411,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>204</v>
       </c>
@@ -42435,7 +42425,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>204</v>
       </c>
@@ -42449,7 +42439,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>204</v>
       </c>
@@ -42463,7 +42453,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>204</v>
       </c>
@@ -42477,7 +42467,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>204</v>
       </c>
@@ -42491,7 +42481,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>204</v>
       </c>
@@ -42505,7 +42495,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>204</v>
       </c>
@@ -42519,7 +42509,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>204</v>
       </c>
@@ -42533,7 +42523,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>204</v>
       </c>
@@ -42547,7 +42537,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>204</v>
       </c>
@@ -42561,7 +42551,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>204</v>
       </c>
@@ -42575,7 +42565,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>204</v>
       </c>
@@ -42589,7 +42579,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>204</v>
       </c>
@@ -42603,7 +42593,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>204</v>
       </c>
@@ -42617,7 +42607,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>204</v>
       </c>
@@ -42631,7 +42621,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>204</v>
       </c>
@@ -42645,7 +42635,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>204</v>
       </c>
@@ -42659,7 +42649,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>204</v>
       </c>
@@ -42673,7 +42663,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>204</v>
       </c>
@@ -42687,7 +42677,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>204</v>
       </c>
@@ -42701,7 +42691,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>204</v>
       </c>
@@ -42715,7 +42705,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>204</v>
       </c>
@@ -42729,7 +42719,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -42743,7 +42733,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>204</v>
       </c>
@@ -42757,7 +42747,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -42771,7 +42761,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>204</v>
       </c>
@@ -42785,7 +42775,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>204</v>
       </c>
@@ -42799,7 +42789,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>204</v>
       </c>
@@ -42813,7 +42803,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -42827,7 +42817,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>204</v>
       </c>
@@ -42841,7 +42831,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>204</v>
       </c>
@@ -42855,7 +42845,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>204</v>
       </c>
@@ -42869,7 +42859,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>204</v>
       </c>
@@ -42883,7 +42873,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>204</v>
       </c>
@@ -42897,7 +42887,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -42911,7 +42901,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>204</v>
       </c>
@@ -42925,7 +42915,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>204</v>
       </c>
@@ -42939,7 +42929,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -42953,7 +42943,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -42967,7 +42957,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -42981,7 +42971,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -42995,7 +42985,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -43009,7 +42999,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -43023,7 +43013,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -43037,7 +43027,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>204</v>
       </c>
@@ -43051,7 +43041,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>204</v>
       </c>
@@ -43065,7 +43055,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>204</v>
       </c>
@@ -43079,7 +43069,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>204</v>
       </c>
@@ -43093,7 +43083,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>204</v>
       </c>
@@ -43107,7 +43097,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>204</v>
       </c>
@@ -43121,7 +43111,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>204</v>
       </c>
@@ -43135,7 +43125,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>204</v>
       </c>
@@ -43149,7 +43139,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>204</v>
       </c>
@@ -43163,7 +43153,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>204</v>
       </c>
@@ -43177,7 +43167,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>204</v>
       </c>
@@ -43191,7 +43181,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>204</v>
       </c>
@@ -43205,7 +43195,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>204</v>
       </c>
@@ -43219,7 +43209,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>204</v>
       </c>
@@ -43233,7 +43223,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>204</v>
       </c>
@@ -43247,7 +43237,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>204</v>
       </c>
@@ -43261,7 +43251,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>204</v>
       </c>
@@ -43275,7 +43265,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>204</v>
       </c>
@@ -43289,7 +43279,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>204</v>
       </c>
@@ -43303,7 +43293,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>204</v>
       </c>
@@ -43317,7 +43307,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>204</v>
       </c>
@@ -43331,7 +43321,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>204</v>
       </c>
@@ -43345,7 +43335,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>204</v>
       </c>
@@ -43359,7 +43349,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>204</v>
       </c>
@@ -43373,7 +43363,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>204</v>
       </c>
@@ -43387,7 +43377,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>204</v>
       </c>
@@ -43401,7 +43391,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>204</v>
       </c>
@@ -43415,7 +43405,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>204</v>
       </c>
@@ -43429,7 +43419,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>204</v>
       </c>
@@ -43443,7 +43433,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>204</v>
       </c>
@@ -43457,7 +43447,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>204</v>
       </c>
@@ -43471,7 +43461,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>204</v>
       </c>
@@ -43485,7 +43475,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>204</v>
       </c>
@@ -43499,7 +43489,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>204</v>
       </c>
@@ -43513,7 +43503,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>204</v>
       </c>
@@ -43527,7 +43517,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>204</v>
       </c>
@@ -43541,7 +43531,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>204</v>
       </c>
@@ -43555,7 +43545,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>204</v>
       </c>
@@ -43569,7 +43559,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>204</v>
       </c>
@@ -43583,7 +43573,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>204</v>
       </c>
@@ -43597,7 +43587,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>204</v>
       </c>
@@ -43611,7 +43601,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>204</v>
       </c>
@@ -43625,7 +43615,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>204</v>
       </c>
@@ -43639,7 +43629,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>204</v>
       </c>
@@ -43653,7 +43643,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>204</v>
       </c>
@@ -43667,7 +43657,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>204</v>
       </c>
@@ -43681,7 +43671,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>204</v>
       </c>
@@ -43695,7 +43685,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>204</v>
       </c>
@@ -43709,7 +43699,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>204</v>
       </c>
@@ -43723,7 +43713,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>204</v>
       </c>
@@ -43737,7 +43727,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>204</v>
       </c>
@@ -43751,7 +43741,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>204</v>
       </c>
@@ -43765,7 +43755,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>204</v>
       </c>
@@ -43779,7 +43769,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>204</v>
       </c>
@@ -43793,7 +43783,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>204</v>
       </c>
@@ -43807,7 +43797,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>204</v>
       </c>
@@ -43821,7 +43811,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>204</v>
       </c>
@@ -43835,7 +43825,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>204</v>
       </c>
@@ -43849,7 +43839,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>204</v>
       </c>
@@ -43863,7 +43853,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>204</v>
       </c>
@@ -43877,7 +43867,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>204</v>
       </c>
@@ -43891,7 +43881,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>204</v>
       </c>
@@ -43905,7 +43895,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>204</v>
       </c>
@@ -43919,7 +43909,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>204</v>
       </c>
@@ -43933,7 +43923,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>204</v>
       </c>
@@ -43964,15 +43954,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="4" max="15" width="7.6328125" customWidth="1"/>
-    <col min="16" max="26" width="15.1796875" customWidth="1"/>
+    <col min="1" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="15" width="7.5703125" customWidth="1"/>
+    <col min="16" max="26" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -44012,7 +44002,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -44021,7 +44011,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-14 17-02</v>
+        <v>2020-11-15 8-18</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="3" t="s">
@@ -44051,7 +44041,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -44079,7 +44069,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -44107,7 +44097,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -44135,7 +44125,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -44163,7 +44153,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -44191,7 +44181,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -44219,7 +44209,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -44247,7 +44237,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -44275,7 +44265,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -44303,7 +44293,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -44331,7 +44321,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -44359,7 +44349,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -44387,7 +44377,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -44415,7 +44405,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -44443,7 +44433,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -44471,7 +44461,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -44499,7 +44489,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -44527,7 +44517,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -44555,7 +44545,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -44583,7 +44573,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -44611,7 +44601,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -44639,7 +44629,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -44667,7 +44657,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -44695,7 +44685,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -44723,7 +44713,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -44751,7 +44741,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -44779,7 +44769,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -44807,7 +44797,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -44835,7 +44825,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -44863,7 +44853,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -44891,7 +44881,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -44919,7 +44909,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -44947,7 +44937,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -44975,7 +44965,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -45003,7 +44993,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -45031,7 +45021,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -45059,7 +45049,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -45087,7 +45077,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -45115,7 +45105,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -45143,7 +45133,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -45171,7 +45161,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -45199,7 +45189,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -45227,7 +45217,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -45255,7 +45245,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -45283,7 +45273,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -45311,7 +45301,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -45339,7 +45329,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -45367,7 +45357,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -45395,7 +45385,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -45423,7 +45413,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -45451,7 +45441,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -45479,7 +45469,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -45507,7 +45497,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -45535,7 +45525,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -45563,7 +45553,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -45591,7 +45581,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -45619,7 +45609,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -45647,7 +45637,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -45675,7 +45665,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -45703,7 +45693,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -45731,7 +45721,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -45759,7 +45749,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -45787,7 +45777,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -45815,7 +45805,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -45843,7 +45833,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -45871,7 +45861,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -45899,7 +45889,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -45927,7 +45917,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -45955,7 +45945,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -45983,7 +45973,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -46011,7 +46001,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -46039,7 +46029,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -46067,7 +46057,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -46095,7 +46085,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -46123,7 +46113,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -46151,7 +46141,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -46179,7 +46169,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -46207,7 +46197,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -46235,7 +46225,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -46263,7 +46253,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -46291,7 +46281,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -46319,7 +46309,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -46347,7 +46337,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -46375,7 +46365,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -46403,7 +46393,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -46431,7 +46421,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -46459,7 +46449,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -46487,7 +46477,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -46515,7 +46505,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -46543,7 +46533,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -46571,7 +46561,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -46599,7 +46589,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -46627,7 +46617,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -46655,7 +46645,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -46683,7 +46673,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -46711,7 +46701,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -46739,7 +46729,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -46767,7 +46757,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -46795,7 +46785,7 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -46823,7 +46813,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -46851,7 +46841,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -46879,7 +46869,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -46907,7 +46897,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -46935,7 +46925,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -46963,7 +46953,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -46991,7 +46981,7 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -47019,7 +47009,7 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -47047,7 +47037,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -47075,7 +47065,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -47103,7 +47093,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -47131,7 +47121,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -47159,7 +47149,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -47187,7 +47177,7 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -47215,7 +47205,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -47243,7 +47233,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -47271,7 +47261,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -47299,7 +47289,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -47327,7 +47317,7 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -47355,7 +47345,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -47383,7 +47373,7 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -47411,7 +47401,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -47439,7 +47429,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -47467,7 +47457,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -47495,7 +47485,7 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -47523,7 +47513,7 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -47551,7 +47541,7 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -47579,7 +47569,7 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -47607,7 +47597,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -47635,7 +47625,7 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -47663,7 +47653,7 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -47691,7 +47681,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -47719,7 +47709,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -47747,7 +47737,7 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -47775,7 +47765,7 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -47803,7 +47793,7 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -47831,7 +47821,7 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -47859,7 +47849,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -47887,7 +47877,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -47915,7 +47905,7 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -47943,7 +47933,7 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -47971,7 +47961,7 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -47999,7 +47989,7 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -48027,7 +48017,7 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -48055,7 +48045,7 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -48083,7 +48073,7 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -48111,7 +48101,7 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -48139,7 +48129,7 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -48167,7 +48157,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -48195,7 +48185,7 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -48223,7 +48213,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -48251,7 +48241,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -48279,7 +48269,7 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -48307,7 +48297,7 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -48335,7 +48325,7 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -48363,7 +48353,7 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -48391,7 +48381,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -48419,7 +48409,7 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -48447,7 +48437,7 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -48475,7 +48465,7 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -48503,7 +48493,7 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -48531,7 +48521,7 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -48559,7 +48549,7 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -48587,7 +48577,7 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -48615,7 +48605,7 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -48643,7 +48633,7 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -48671,7 +48661,7 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -48699,7 +48689,7 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -48727,7 +48717,7 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -48755,7 +48745,7 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -48783,7 +48773,7 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -48811,7 +48801,7 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -48839,7 +48829,7 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -48867,7 +48857,7 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -48895,7 +48885,7 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -48923,7 +48913,7 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -48951,7 +48941,7 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -48979,7 +48969,7 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -49007,7 +48997,7 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -49035,7 +49025,7 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -49063,7 +49053,7 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -49091,7 +49081,7 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -49119,7 +49109,7 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -49147,7 +49137,7 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -49175,7 +49165,7 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -49203,7 +49193,7 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -49231,7 +49221,7 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -49259,7 +49249,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -49287,7 +49277,7 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -49315,7 +49305,7 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -49343,7 +49333,7 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -49371,7 +49361,7 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -49399,7 +49389,7 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -49427,7 +49417,7 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -49455,7 +49445,7 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -49483,7 +49473,7 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -49511,7 +49501,7 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -49539,7 +49529,7 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -49567,7 +49557,7 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -49595,7 +49585,7 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -49623,7 +49613,7 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -49651,7 +49641,7 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -49679,7 +49669,7 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -49707,7 +49697,7 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -49735,7 +49725,7 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -49763,7 +49753,7 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -49791,7 +49781,7 @@
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -49819,7 +49809,7 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -49847,7 +49837,7 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -49875,7 +49865,7 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -49903,7 +49893,7 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -49931,7 +49921,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -49959,7 +49949,7 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -49987,7 +49977,7 @@
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -50015,7 +50005,7 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -50043,7 +50033,7 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -50071,7 +50061,7 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -50099,7 +50089,7 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -50127,7 +50117,7 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -50155,786 +50145,786 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/ebs_with_tracing/forms/contact/person-create.xlsx
+++ b/ebs_with_tracing/forms/contact/person-create.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="955">
   <si>
     <t>type</t>
   </si>
@@ -2896,6 +2896,18 @@
   </si>
   <si>
     <t>Does  patient have a Home Based Caregiver?</t>
+  </si>
+  <si>
+    <t>selected(../../role, 'covid_patient') or selected(../../role, 'patient')</t>
+  </si>
+  <si>
+    <t>selected(../../../role, 'covid_patient') or selected(../../../role, 'patient')</t>
+  </si>
+  <si>
+    <t>${case_comorbities} = 'true'</t>
+  </si>
+  <si>
+    <t>${caregiver_available} = 'true'</t>
   </si>
 </sst>
 </file>
@@ -3303,10 +3315,10 @@
   <dimension ref="A1:AE94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G74" sqref="G74"/>
+      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5714,7 +5726,7 @@
       <c r="E60" s="27"/>
       <c r="F60" s="27"/>
       <c r="G60" s="27" t="s">
-        <v>919</v>
+        <v>951</v>
       </c>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
@@ -5827,7 +5839,9 @@
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
+      <c r="G63" s="27" t="s">
+        <v>954</v>
+      </c>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
       <c r="J63" s="27"/>
@@ -6086,7 +6100,7 @@
       <c r="E70" s="27"/>
       <c r="F70" s="27"/>
       <c r="G70" s="27" t="s">
-        <v>919</v>
+        <v>952</v>
       </c>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
@@ -6231,7 +6245,9 @@
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
+      <c r="G74" s="27" t="s">
+        <v>953</v>
+      </c>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
       <c r="J74" s="27"/>
@@ -44011,7 +44027,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-15 8-18</v>
+        <v>2020-11-15 8-51</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="3" t="s">

--- a/ebs_with_tracing/forms/contact/person-create.xlsx
+++ b/ebs_with_tracing/forms/contact/person-create.xlsx
@@ -2904,10 +2904,10 @@
     <t>selected(../../../role, 'covid_patient') or selected(../../../role, 'patient')</t>
   </si>
   <si>
-    <t>${case_comorbities} = 'true'</t>
-  </si>
-  <si>
     <t>${caregiver_available} = 'true'</t>
+  </si>
+  <si>
+    <t>${case_comorbidities} = 'true'</t>
   </si>
 </sst>
 </file>
@@ -3315,10 +3315,10 @@
   <dimension ref="A1:AE94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5840,7 +5840,7 @@
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
@@ -6246,7 +6246,7 @@
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
       <c r="G74" s="27" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
@@ -44027,7 +44027,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-15 8-51</v>
+        <v>2020-11-15 8-57</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="3" t="s">

--- a/ebs_with_tracing/forms/contact/person-create.xlsx
+++ b/ebs_with_tracing/forms/contact/person-create.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="953">
   <si>
     <t>type</t>
   </si>
@@ -2802,9 +2802,6 @@
     <t>Caregiver Alternate Phone Number</t>
   </si>
   <si>
-    <t>selected(../role, 'covid_patient') or selected(../role, 'patient')</t>
-  </si>
-  <si>
     <t>comorbidities</t>
   </si>
   <si>
@@ -2898,16 +2895,13 @@
     <t>Does  patient have a Home Based Caregiver?</t>
   </si>
   <si>
-    <t>selected(../../role, 'covid_patient') or selected(../../role, 'patient')</t>
-  </si>
-  <si>
-    <t>selected(../../../role, 'covid_patient') or selected(../../../role, 'patient')</t>
-  </si>
-  <si>
     <t>${caregiver_available} = 'true'</t>
   </si>
   <si>
     <t>${case_comorbidities} = 'true'</t>
+  </si>
+  <si>
+    <t>selected( ${role},'covid_patient') or selected( ${role},'patient')</t>
   </si>
 </sst>
 </file>
@@ -3315,10 +3309,10 @@
   <dimension ref="A1:AE94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
+      <selection pane="bottomRight" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5329,7 +5323,7 @@
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27" t="s">
-        <v>919</v>
+        <v>952</v>
       </c>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -5454,7 +5448,7 @@
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27" t="s">
-        <v>919</v>
+        <v>952</v>
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -5494,7 +5488,7 @@
       <c r="E54" s="27"/>
       <c r="F54" s="27"/>
       <c r="G54" s="27" t="s">
-        <v>919</v>
+        <v>952</v>
       </c>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -5534,7 +5528,7 @@
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
       <c r="G55" s="27" t="s">
-        <v>919</v>
+        <v>952</v>
       </c>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
@@ -5726,7 +5720,7 @@
       <c r="E60" s="27"/>
       <c r="F60" s="27"/>
       <c r="G60" s="27" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
@@ -5754,13 +5748,13 @@
     </row>
     <row r="61" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B61" s="33" t="s">
         <v>907</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
@@ -5840,7 +5834,7 @@
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
@@ -6091,7 +6085,7 @@
         <v>905</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>34</v>
@@ -6128,13 +6122,13 @@
     </row>
     <row r="71" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B71" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="C71" s="14" t="s">
         <v>921</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>922</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
@@ -6169,7 +6163,7 @@
         <v>908</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="27"/>
@@ -6237,16 +6231,16 @@
         <v>31</v>
       </c>
       <c r="B74" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>923</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>924</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
       <c r="G74" s="27" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
@@ -6274,13 +6268,13 @@
     </row>
     <row r="75" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>925</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="C75" s="14" t="s">
         <v>926</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>927</v>
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
@@ -6312,13 +6306,13 @@
     </row>
     <row r="76" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B76" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>928</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>929</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
@@ -6350,13 +6344,13 @@
     </row>
     <row r="77" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B77" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="C77" s="14" t="s">
         <v>930</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>931</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
@@ -6388,13 +6382,13 @@
     </row>
     <row r="78" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B78" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>932</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>933</v>
       </c>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
@@ -6426,13 +6420,13 @@
     </row>
     <row r="79" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B79" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>934</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>935</v>
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
@@ -6464,13 +6458,13 @@
     </row>
     <row r="80" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B80" s="13" t="s">
+        <v>935</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>936</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>937</v>
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
@@ -6502,13 +6496,13 @@
     </row>
     <row r="81" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B81" s="13" t="s">
+        <v>937</v>
+      </c>
+      <c r="C81" s="14" t="s">
         <v>938</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>939</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
@@ -6540,13 +6534,13 @@
     </row>
     <row r="82" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B82" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="C82" s="14" t="s">
         <v>940</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>941</v>
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
@@ -6578,13 +6572,13 @@
     </row>
     <row r="83" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B83" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>942</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>943</v>
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
@@ -6616,13 +6610,13 @@
     </row>
     <row r="84" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B84" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="C84" s="16" t="s">
         <v>944</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>945</v>
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
@@ -6654,13 +6648,13 @@
     </row>
     <row r="85" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B85" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="C85" s="14" t="s">
         <v>946</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>947</v>
       </c>
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
@@ -6692,13 +6686,13 @@
     </row>
     <row r="86" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B86" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="C86" s="16" t="s">
         <v>948</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>949</v>
       </c>
       <c r="D86" s="27"/>
       <c r="E86" s="27"/>
@@ -6733,7 +6727,7 @@
         <v>65</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="27"/>
@@ -44027,7 +44021,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-15 8-57</v>
+        <v>2020-11-15 9-02</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="3" t="s">

--- a/ebs_with_tracing/forms/contact/person-create.xlsx
+++ b/ebs_with_tracing/forms/contact/person-create.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="941">
   <si>
     <t>type</t>
   </si>
@@ -2763,45 +2763,9 @@
     <t>begin_group</t>
   </si>
   <si>
-    <t>caregiver_availability</t>
-  </si>
-  <si>
-    <t>caregiver_available</t>
-  </si>
-  <si>
     <t>end_group</t>
   </si>
   <si>
-    <t>care_giver</t>
-  </si>
-  <si>
-    <t>Patient  Caregiver Contact Details</t>
-  </si>
-  <si>
-    <t>caregiver_name</t>
-  </si>
-  <si>
-    <t>Caregiver First Name</t>
-  </si>
-  <si>
-    <t>caregiver_surname</t>
-  </si>
-  <si>
-    <t>Caregiver Surname</t>
-  </si>
-  <si>
-    <t>caregiver_phone</t>
-  </si>
-  <si>
-    <t>Caregiver Phone Number</t>
-  </si>
-  <si>
-    <t>caregiver_phone_alt</t>
-  </si>
-  <si>
-    <t>Caregiver Alternate Phone Number</t>
-  </si>
-  <si>
     <t>comorbidities</t>
   </si>
   <si>
@@ -2892,16 +2856,16 @@
     <t>Recurrent miscarriages</t>
   </si>
   <si>
-    <t>Does  patient have a Home Based Caregiver?</t>
-  </si>
-  <si>
-    <t>${caregiver_available} = 'true'</t>
-  </si>
-  <si>
     <t>${case_comorbidities} = 'true'</t>
   </si>
   <si>
     <t>selected( ${role},'covid_patient') or selected( ${role},'patient')</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
 </sst>
 </file>
@@ -3031,7 +2995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3080,11 +3044,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3306,13 +3265,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE94"/>
+  <dimension ref="A1:AE84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E73" sqref="E73"/>
+      <selection pane="bottomRight" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3988,7 +3947,9 @@
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="H17" s="27" t="s">
+        <v>940</v>
+      </c>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -5323,7 +5284,7 @@
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -5448,7 +5409,7 @@
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -5488,7 +5449,7 @@
       <c r="E54" s="27"/>
       <c r="F54" s="27"/>
       <c r="G54" s="27" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -5528,7 +5489,7 @@
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
       <c r="G55" s="27" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
@@ -5675,14 +5636,14 @@
       <c r="AD58" s="27"/>
     </row>
     <row r="59" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
       <c r="K59" s="27"/>
@@ -5707,22 +5668,24 @@
       <c r="AD59" s="27"/>
     </row>
     <row r="60" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="15" t="s">
         <v>905</v>
       </c>
-      <c r="B60" s="32" t="s">
-        <v>906</v>
-      </c>
-      <c r="C60" s="32" t="s">
+      <c r="B60" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
       <c r="F60" s="27"/>
       <c r="G60" s="27" t="s">
-        <v>952</v>
-      </c>
-      <c r="H60" s="27"/>
+        <v>938</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>940</v>
+      </c>
       <c r="I60" s="27"/>
       <c r="J60" s="27"/>
       <c r="K60" s="27"/>
@@ -5747,14 +5710,14 @@
       <c r="AD60" s="27"/>
     </row>
     <row r="61" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="33" t="s">
-        <v>924</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>907</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>949</v>
+      <c r="A61" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>909</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
@@ -5785,13 +5748,13 @@
       <c r="AD61" s="27"/>
     </row>
     <row r="62" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32" t="s">
-        <v>908</v>
-      </c>
-      <c r="B62" s="32" t="s">
+      <c r="A62" s="15" t="s">
         <v>906</v>
       </c>
-      <c r="C62" s="34"/>
+      <c r="B62" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="C62" s="16"/>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
       <c r="F62" s="27"/>
@@ -5821,21 +5784,13 @@
       <c r="AD62" s="27"/>
     </row>
     <row r="63" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
-        <v>905</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>909</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>910</v>
-      </c>
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="27" t="s">
-        <v>950</v>
-      </c>
+      <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
       <c r="J63" s="27"/>
@@ -5861,20 +5816,24 @@
       <c r="AD63" s="27"/>
     </row>
     <row r="64" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="33" t="s">
+      <c r="A64" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>911</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>912</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
       <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
+      <c r="G64" s="27" t="s">
+        <v>937</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>940</v>
+      </c>
       <c r="I64" s="27"/>
       <c r="J64" s="27"/>
       <c r="K64" s="27"/>
@@ -5899,13 +5858,13 @@
       <c r="AD64" s="27"/>
     </row>
     <row r="65" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="33" t="s">
+      <c r="A65" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>913</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="14" t="s">
         <v>914</v>
       </c>
       <c r="D65" s="27"/>
@@ -5937,13 +5896,13 @@
       <c r="AD65" s="27"/>
     </row>
     <row r="66" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" s="33" t="s">
+      <c r="A66" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>915</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="14" t="s">
         <v>916</v>
       </c>
       <c r="D66" s="27"/>
@@ -5975,13 +5934,13 @@
       <c r="AD66" s="27"/>
     </row>
     <row r="67" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B67" s="33" t="s">
+      <c r="A67" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>917</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="14" t="s">
         <v>918</v>
       </c>
       <c r="D67" s="27"/>
@@ -6013,13 +5972,15 @@
       <c r="AD67" s="27"/>
     </row>
     <row r="68" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="32" t="s">
-        <v>908</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>909</v>
-      </c>
-      <c r="C68" s="34"/>
+      <c r="A68" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>920</v>
+      </c>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
@@ -6049,14 +6010,20 @@
       <c r="AD68" s="27"/>
     </row>
     <row r="69" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
+      <c r="A69" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
       <c r="I69" s="27"/>
       <c r="J69" s="27"/>
       <c r="K69" s="27"/>
@@ -6081,21 +6048,19 @@
       <c r="AD69" s="27"/>
     </row>
     <row r="70" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
-        <v>905</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>919</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>34</v>
+      <c r="A70" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>924</v>
       </c>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
       <c r="F70" s="27"/>
-      <c r="G70" s="27" t="s">
-        <v>952</v>
-      </c>
+      <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
       <c r="J70" s="27"/>
@@ -6122,13 +6087,13 @@
     </row>
     <row r="71" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
@@ -6159,13 +6124,15 @@
       <c r="AD71" s="27"/>
     </row>
     <row r="72" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
-        <v>908</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>919</v>
-      </c>
-      <c r="C72" s="16"/>
+      <c r="A72" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>928</v>
+      </c>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
       <c r="F72" s="27"/>
@@ -6195,9 +6162,15 @@
       <c r="AD72" s="27"/>
     </row>
     <row r="73" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
+      <c r="A73" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>930</v>
+      </c>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
       <c r="F73" s="27"/>
@@ -6228,20 +6201,18 @@
     </row>
     <row r="74" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
-        <v>31</v>
+        <v>912</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>922</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>923</v>
+        <v>931</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>932</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
-      <c r="G74" s="27" t="s">
-        <v>951</v>
-      </c>
+      <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
       <c r="J74" s="27"/>
@@ -6268,13 +6239,13 @@
     </row>
     <row r="75" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
@@ -6306,13 +6277,13 @@
     </row>
     <row r="76" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>927</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>928</v>
+        <v>935</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>936</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
@@ -6344,14 +6315,12 @@
     </row>
     <row r="77" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>924</v>
+        <v>65</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>929</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>930</v>
-      </c>
+        <v>910</v>
+      </c>
+      <c r="C77" s="14"/>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
       <c r="F77" s="27"/>
@@ -6381,15 +6350,9 @@
       <c r="AD77" s="27"/>
     </row>
     <row r="78" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>931</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>932</v>
-      </c>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
       <c r="F78" s="27"/>
@@ -6419,20 +6382,22 @@
       <c r="AD78" s="27"/>
     </row>
     <row r="79" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>933</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>934</v>
+      <c r="A79" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
+      <c r="H79" s="27" t="s">
+        <v>87</v>
+      </c>
       <c r="I79" s="27"/>
       <c r="J79" s="27"/>
       <c r="K79" s="27"/>
@@ -6457,15 +6422,13 @@
       <c r="AD79" s="27"/>
     </row>
     <row r="80" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>935</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>936</v>
-      </c>
+      <c r="A80" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="27"/>
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
       <c r="F80" s="27"/>
@@ -6475,7 +6438,9 @@
       <c r="J80" s="27"/>
       <c r="K80" s="27"/>
       <c r="L80" s="27"/>
-      <c r="M80" s="27"/>
+      <c r="M80" s="27" t="s">
+        <v>171</v>
+      </c>
       <c r="N80" s="27"/>
       <c r="O80" s="27"/>
       <c r="P80" s="27"/>
@@ -6495,15 +6460,13 @@
       <c r="AD80" s="27"/>
     </row>
     <row r="81" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>937</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>938</v>
-      </c>
+      <c r="A81" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" s="27"/>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
       <c r="F81" s="27"/>
@@ -6513,7 +6476,9 @@
       <c r="J81" s="27"/>
       <c r="K81" s="27"/>
       <c r="L81" s="27"/>
-      <c r="M81" s="27"/>
+      <c r="M81" s="27" t="s">
+        <v>173</v>
+      </c>
       <c r="N81" s="27"/>
       <c r="O81" s="27"/>
       <c r="P81" s="27"/>
@@ -6533,15 +6498,13 @@
       <c r="AD81" s="27"/>
     </row>
     <row r="82" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>939</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>940</v>
-      </c>
+      <c r="A82" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" s="27"/>
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
       <c r="F82" s="27"/>
@@ -6551,7 +6514,9 @@
       <c r="J82" s="27"/>
       <c r="K82" s="27"/>
       <c r="L82" s="27"/>
-      <c r="M82" s="27"/>
+      <c r="M82" s="27" t="s">
+        <v>175</v>
+      </c>
       <c r="N82" s="27"/>
       <c r="O82" s="27"/>
       <c r="P82" s="27"/>
@@ -6571,15 +6536,11 @@
       <c r="AD82" s="27"/>
     </row>
     <row r="83" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>941</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>942</v>
-      </c>
+      <c r="A83" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" s="26"/>
+      <c r="C83" s="27"/>
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
       <c r="F83" s="27"/>
@@ -6609,15 +6570,11 @@
       <c r="AD83" s="27"/>
     </row>
     <row r="84" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>943</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>944</v>
-      </c>
+      <c r="A84" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B84" s="26"/>
+      <c r="C84" s="27"/>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
       <c r="F84" s="27"/>
@@ -6645,372 +6602,6 @@
       <c r="AB84" s="27"/>
       <c r="AC84" s="27"/>
       <c r="AD84" s="27"/>
-    </row>
-    <row r="85" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>945</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>946</v>
-      </c>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="27"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="27"/>
-      <c r="P85" s="27"/>
-      <c r="Q85" s="27"/>
-      <c r="R85" s="27"/>
-      <c r="S85" s="27"/>
-      <c r="T85" s="27"/>
-      <c r="U85" s="27"/>
-      <c r="V85" s="27"/>
-      <c r="W85" s="27"/>
-      <c r="X85" s="27"/>
-      <c r="Y85" s="27"/>
-      <c r="Z85" s="27"/>
-      <c r="AA85" s="27"/>
-      <c r="AB85" s="27"/>
-      <c r="AC85" s="27"/>
-      <c r="AD85" s="27"/>
-    </row>
-    <row r="86" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>947</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>948</v>
-      </c>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
-      <c r="R86" s="27"/>
-      <c r="S86" s="27"/>
-      <c r="T86" s="27"/>
-      <c r="U86" s="27"/>
-      <c r="V86" s="27"/>
-      <c r="W86" s="27"/>
-      <c r="X86" s="27"/>
-      <c r="Y86" s="27"/>
-      <c r="Z86" s="27"/>
-      <c r="AA86" s="27"/>
-      <c r="AB86" s="27"/>
-      <c r="AC86" s="27"/>
-      <c r="AD86" s="27"/>
-    </row>
-    <row r="87" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>922</v>
-      </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="27"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27"/>
-      <c r="T87" s="27"/>
-      <c r="U87" s="27"/>
-      <c r="V87" s="27"/>
-      <c r="W87" s="27"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="27"/>
-      <c r="Z87" s="27"/>
-      <c r="AA87" s="27"/>
-      <c r="AB87" s="27"/>
-      <c r="AC87" s="27"/>
-      <c r="AD87" s="27"/>
-    </row>
-    <row r="88" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="35"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="27"/>
-      <c r="S88" s="27"/>
-      <c r="T88" s="27"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="27"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="27"/>
-      <c r="AA88" s="27"/>
-      <c r="AB88" s="27"/>
-      <c r="AC88" s="27"/>
-      <c r="AD88" s="27"/>
-    </row>
-    <row r="89" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="27"/>
-      <c r="N89" s="27"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
-      <c r="Q89" s="27"/>
-      <c r="R89" s="27"/>
-      <c r="S89" s="27"/>
-      <c r="T89" s="27"/>
-      <c r="U89" s="27"/>
-      <c r="V89" s="27"/>
-      <c r="W89" s="27"/>
-      <c r="X89" s="27"/>
-      <c r="Y89" s="27"/>
-      <c r="Z89" s="27"/>
-      <c r="AA89" s="27"/>
-      <c r="AB89" s="27"/>
-      <c r="AC89" s="27"/>
-      <c r="AD89" s="27"/>
-    </row>
-    <row r="90" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="N90" s="27"/>
-      <c r="O90" s="27"/>
-      <c r="P90" s="27"/>
-      <c r="Q90" s="27"/>
-      <c r="R90" s="27"/>
-      <c r="S90" s="27"/>
-      <c r="T90" s="27"/>
-      <c r="U90" s="27"/>
-      <c r="V90" s="27"/>
-      <c r="W90" s="27"/>
-      <c r="X90" s="27"/>
-      <c r="Y90" s="27"/>
-      <c r="Z90" s="27"/>
-      <c r="AA90" s="27"/>
-      <c r="AB90" s="27"/>
-      <c r="AC90" s="27"/>
-      <c r="AD90" s="27"/>
-    </row>
-    <row r="91" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="N91" s="27"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="27"/>
-      <c r="Q91" s="27"/>
-      <c r="R91" s="27"/>
-      <c r="S91" s="27"/>
-      <c r="T91" s="27"/>
-      <c r="U91" s="27"/>
-      <c r="V91" s="27"/>
-      <c r="W91" s="27"/>
-      <c r="X91" s="27"/>
-      <c r="Y91" s="27"/>
-      <c r="Z91" s="27"/>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="27"/>
-      <c r="AC91" s="27"/>
-      <c r="AD91" s="27"/>
-    </row>
-    <row r="92" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="N92" s="27"/>
-      <c r="O92" s="27"/>
-      <c r="P92" s="27"/>
-      <c r="Q92" s="27"/>
-      <c r="R92" s="27"/>
-      <c r="S92" s="27"/>
-      <c r="T92" s="27"/>
-      <c r="U92" s="27"/>
-      <c r="V92" s="27"/>
-      <c r="W92" s="27"/>
-      <c r="X92" s="27"/>
-      <c r="Y92" s="27"/>
-      <c r="Z92" s="27"/>
-      <c r="AA92" s="27"/>
-      <c r="AB92" s="27"/>
-      <c r="AC92" s="27"/>
-      <c r="AD92" s="27"/>
-    </row>
-    <row r="93" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B93" s="26"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="27"/>
-      <c r="Q93" s="27"/>
-      <c r="R93" s="27"/>
-      <c r="S93" s="27"/>
-      <c r="T93" s="27"/>
-      <c r="U93" s="27"/>
-      <c r="V93" s="27"/>
-      <c r="W93" s="27"/>
-      <c r="X93" s="27"/>
-      <c r="Y93" s="27"/>
-      <c r="Z93" s="27"/>
-      <c r="AA93" s="27"/>
-      <c r="AB93" s="27"/>
-      <c r="AC93" s="27"/>
-      <c r="AD93" s="27"/>
-    </row>
-    <row r="94" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B94" s="26"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="27"/>
-      <c r="M94" s="27"/>
-      <c r="N94" s="27"/>
-      <c r="O94" s="27"/>
-      <c r="P94" s="27"/>
-      <c r="Q94" s="27"/>
-      <c r="R94" s="27"/>
-      <c r="S94" s="27"/>
-      <c r="T94" s="27"/>
-      <c r="U94" s="27"/>
-      <c r="V94" s="27"/>
-      <c r="W94" s="27"/>
-      <c r="X94" s="27"/>
-      <c r="Y94" s="27"/>
-      <c r="Z94" s="27"/>
-      <c r="AA94" s="27"/>
-      <c r="AB94" s="27"/>
-      <c r="AC94" s="27"/>
-      <c r="AD94" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -43961,12 +43552,13 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="15" width="7.5703125" customWidth="1"/>
     <col min="16" max="26" width="15.140625" customWidth="1"/>
@@ -44021,9 +43613,11 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-15 9-02</v>
-      </c>
-      <c r="D2" s="36"/>
+        <v>2020-11-15 9-11</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>939</v>
+      </c>
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>

--- a/ebs_with_tracing/forms/contact/person-create.xlsx
+++ b/ebs_with_tracing/forms/contact/person-create.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="940">
   <si>
     <t>type</t>
   </si>
@@ -2860,9 +2860,6 @@
   </si>
   <si>
     <t>selected( ${role},'covid_patient') or selected( ${role},'patient')</t>
-  </si>
-  <si>
-    <t>pages</t>
   </si>
   <si>
     <t>field-list</t>
@@ -3267,7 +3264,7 @@
   </sheetPr>
   <dimension ref="A1:AE84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3948,7 +3945,7 @@
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
@@ -5684,7 +5681,7 @@
         <v>938</v>
       </c>
       <c r="H60" s="27" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I60" s="27"/>
       <c r="J60" s="27"/>
@@ -5832,7 +5829,7 @@
         <v>937</v>
       </c>
       <c r="H64" s="27" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I64" s="27"/>
       <c r="J64" s="27"/>
@@ -43551,8 +43548,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43613,11 +43610,9 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-15 9-11</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>939</v>
-      </c>
+        <v>2020-11-15 9-18</v>
+      </c>
+      <c r="D2" s="33"/>
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
